--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25745" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26886" uniqueCount="1060">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2146,6 +2146,109 @@
   </si>
   <si>
     <t>Bundle.entry:observationReportedComplaint.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury</t>
+  </si>
+  <si>
+    <t>observationExtentOfInjury</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-extent-of-injury}
+</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExtentOfInjury.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:observationCallSource</t>
@@ -3469,7 +3572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN721"/>
+  <dimension ref="A1:AN753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -56113,7 +56216,7 @@
         <v>79</v>
       </c>
       <c r="G465" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H465" t="s" s="2">
         <v>78</v>
@@ -56786,7 +56889,7 @@
       </c>
       <c r="C471" s="2"/>
       <c r="D471" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="E471" s="2"/>
       <c r="F471" t="s" s="2">
@@ -56808,13 +56911,13 @@
         <v>735</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>736</v>
+        <v>391</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>737</v>
+        <v>392</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>738</v>
+        <v>393</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
@@ -56879,13 +56982,13 @@
         <v>78</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AL471" t="s" s="2">
-        <v>739</v>
+        <v>395</v>
       </c>
       <c r="AM471" t="s" s="2">
-        <v>740</v>
+        <v>78</v>
       </c>
       <c r="AN471" t="s" s="2">
         <v>78</v>
@@ -56893,7 +56996,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>197</v>
@@ -57005,7 +57108,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>201</v>
@@ -57117,7 +57220,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>202</v>
@@ -57231,7 +57334,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>203</v>
@@ -57347,7 +57450,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>204</v>
@@ -57461,7 +57564,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>210</v>
@@ -57575,7 +57678,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>215</v>
@@ -57687,7 +57790,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>219</v>
@@ -57799,7 +57902,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>220</v>
@@ -57913,7 +58016,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>221</v>
@@ -58029,7 +58132,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>222</v>
@@ -58141,7 +58244,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>227</v>
@@ -58255,7 +58358,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>231</v>
@@ -58367,7 +58470,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>234</v>
@@ -58479,7 +58582,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>236</v>
@@ -58591,7 +58694,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>239</v>
@@ -58703,7 +58806,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>242</v>
@@ -58815,7 +58918,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>246</v>
@@ -58927,7 +59030,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>247</v>
@@ -59041,7 +59144,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>248</v>
@@ -59157,7 +59260,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>249</v>
@@ -59269,7 +59372,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>252</v>
@@ -59381,7 +59484,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>255</v>
@@ -59495,7 +59598,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>259</v>
@@ -59609,7 +59712,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>263</v>
@@ -59723,13 +59826,13 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D497" t="s" s="2">
         <v>78</v>
@@ -59837,7 +59940,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>183</v>
@@ -59949,7 +60052,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>184</v>
@@ -60063,7 +60166,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>185</v>
@@ -60179,7 +60282,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>186</v>
@@ -60291,7 +60394,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>189</v>
@@ -60405,7 +60508,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>193</v>
@@ -60431,15 +60534,17 @@
         <v>78</v>
       </c>
       <c r="K503" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="L503" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="M503" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="N503" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="N503" t="s" s="2">
+        <v>772</v>
+      </c>
       <c r="O503" s="2"/>
       <c r="P503" t="s" s="2">
         <v>78</v>
@@ -60506,10 +60611,10 @@
         <v>78</v>
       </c>
       <c r="AL503" t="s" s="2">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="AM503" t="s" s="2">
-        <v>78</v>
+        <v>774</v>
       </c>
       <c r="AN503" t="s" s="2">
         <v>78</v>
@@ -60517,7 +60622,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>197</v>
@@ -60629,7 +60734,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>201</v>
@@ -60741,7 +60846,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>202</v>
@@ -60855,7 +60960,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>203</v>
@@ -60971,7 +61076,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>204</v>
@@ -61085,7 +61190,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>210</v>
@@ -61199,7 +61304,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>215</v>
@@ -61311,7 +61416,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>219</v>
@@ -61423,7 +61528,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>220</v>
@@ -61537,7 +61642,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>221</v>
@@ -61653,7 +61758,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>222</v>
@@ -61765,7 +61870,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>227</v>
@@ -61879,7 +61984,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>231</v>
@@ -61991,7 +62096,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>234</v>
@@ -62103,7 +62208,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>236</v>
@@ -62215,7 +62320,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>239</v>
@@ -62327,7 +62432,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>242</v>
@@ -62439,7 +62544,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>246</v>
@@ -62551,7 +62656,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>247</v>
@@ -62665,7 +62770,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>248</v>
@@ -62781,7 +62886,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>249</v>
@@ -62893,7 +62998,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>252</v>
@@ -63005,7 +63110,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>255</v>
@@ -63119,7 +63224,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>259</v>
@@ -63233,7 +63338,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>263</v>
@@ -63347,13 +63452,13 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D529" t="s" s="2">
         <v>78</v>
@@ -63461,7 +63566,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>183</v>
@@ -63573,7 +63678,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>184</v>
@@ -63687,7 +63792,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>185</v>
@@ -63803,7 +63908,7 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>186</v>
@@ -63915,7 +64020,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>189</v>
@@ -64029,14 +64134,14 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" t="s" s="2">
-        <v>811</v>
+        <v>78</v>
       </c>
       <c r="E535" s="2"/>
       <c r="F535" t="s" s="2">
@@ -64055,13 +64160,13 @@
         <v>78</v>
       </c>
       <c r="K535" t="s" s="2">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="L535" t="s" s="2">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="M535" t="s" s="2">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="N535" s="2"/>
       <c r="O535" s="2"/>
@@ -64127,10 +64232,10 @@
         <v>78</v>
       </c>
       <c r="AK535" t="s" s="2">
-        <v>815</v>
+        <v>78</v>
       </c>
       <c r="AL535" t="s" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="AM535" t="s" s="2">
         <v>78</v>
@@ -64141,7 +64246,7 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>197</v>
@@ -64253,7 +64358,7 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>201</v>
@@ -64365,7 +64470,7 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>202</v>
@@ -64479,7 +64584,7 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>203</v>
@@ -64595,7 +64700,7 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>204</v>
@@ -64709,7 +64814,7 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>210</v>
@@ -64823,7 +64928,7 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>215</v>
@@ -64935,7 +65040,7 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>219</v>
@@ -65047,7 +65152,7 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>220</v>
@@ -65161,7 +65266,7 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>221</v>
@@ -65277,7 +65382,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>222</v>
@@ -65389,7 +65494,7 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>227</v>
@@ -65503,7 +65608,7 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>231</v>
@@ -65615,7 +65720,7 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>234</v>
@@ -65727,7 +65832,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>236</v>
@@ -65839,7 +65944,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>239</v>
@@ -65951,7 +66056,7 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>242</v>
@@ -66063,7 +66168,7 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>246</v>
@@ -66175,7 +66280,7 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>247</v>
@@ -66289,7 +66394,7 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>248</v>
@@ -66405,7 +66510,7 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>249</v>
@@ -66517,7 +66622,7 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>252</v>
@@ -66629,7 +66734,7 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>255</v>
@@ -66743,7 +66848,7 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>259</v>
@@ -66857,7 +66962,7 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>263</v>
@@ -66971,13 +67076,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D561" t="s" s="2">
         <v>78</v>
@@ -67085,7 +67190,7 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>183</v>
@@ -67197,7 +67302,7 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>184</v>
@@ -67311,7 +67416,7 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>185</v>
@@ -67427,7 +67532,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>186</v>
@@ -67539,7 +67644,7 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>189</v>
@@ -67653,14 +67758,14 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" t="s" s="2">
-        <v>78</v>
+        <v>845</v>
       </c>
       <c r="E567" s="2"/>
       <c r="F567" t="s" s="2">
@@ -67679,13 +67784,13 @@
         <v>78</v>
       </c>
       <c r="K567" t="s" s="2">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="L567" t="s" s="2">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="N567" s="2"/>
       <c r="O567" s="2"/>
@@ -67751,10 +67856,10 @@
         <v>78</v>
       </c>
       <c r="AK567" t="s" s="2">
-        <v>78</v>
+        <v>849</v>
       </c>
       <c r="AL567" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AM567" t="s" s="2">
         <v>78</v>
@@ -67765,7 +67870,7 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>197</v>
@@ -67877,7 +67982,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B569" t="s" s="2">
         <v>201</v>
@@ -67989,7 +68094,7 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B570" t="s" s="2">
         <v>202</v>
@@ -68103,7 +68208,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B571" t="s" s="2">
         <v>203</v>
@@ -68219,7 +68324,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B572" t="s" s="2">
         <v>204</v>
@@ -68333,7 +68438,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B573" t="s" s="2">
         <v>210</v>
@@ -68447,7 +68552,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B574" t="s" s="2">
         <v>215</v>
@@ -68559,7 +68664,7 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B575" t="s" s="2">
         <v>219</v>
@@ -68671,7 +68776,7 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B576" t="s" s="2">
         <v>220</v>
@@ -68785,7 +68890,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B577" t="s" s="2">
         <v>221</v>
@@ -68901,7 +69006,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B578" t="s" s="2">
         <v>222</v>
@@ -69013,7 +69118,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>227</v>
@@ -69127,7 +69232,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>231</v>
@@ -69239,7 +69344,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>234</v>
@@ -69351,7 +69456,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>236</v>
@@ -69463,7 +69568,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>239</v>
@@ -69575,7 +69680,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>242</v>
@@ -69687,7 +69792,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>246</v>
@@ -69799,7 +69904,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>247</v>
@@ -69913,7 +70018,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B587" t="s" s="2">
         <v>248</v>
@@ -70029,7 +70134,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B588" t="s" s="2">
         <v>249</v>
@@ -70141,7 +70246,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B589" t="s" s="2">
         <v>252</v>
@@ -70253,7 +70358,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B590" t="s" s="2">
         <v>255</v>
@@ -70367,7 +70472,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B591" t="s" s="2">
         <v>259</v>
@@ -70481,7 +70586,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>263</v>
@@ -70595,13 +70700,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D593" t="s" s="2">
         <v>78</v>
@@ -70611,7 +70716,7 @@
         <v>79</v>
       </c>
       <c r="G593" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H593" t="s" s="2">
         <v>78</v>
@@ -70709,7 +70814,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>183</v>
@@ -70821,7 +70926,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>184</v>
@@ -70935,7 +71040,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>185</v>
@@ -71051,7 +71156,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>186</v>
@@ -71163,7 +71268,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>189</v>
@@ -71277,14 +71382,14 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" t="s" s="2">
-        <v>887</v>
+        <v>78</v>
       </c>
       <c r="E599" s="2"/>
       <c r="F599" t="s" s="2">
@@ -71303,17 +71408,15 @@
         <v>78</v>
       </c>
       <c r="K599" t="s" s="2">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="L599" t="s" s="2">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="N599" t="s" s="2">
-        <v>891</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="N599" s="2"/>
       <c r="O599" s="2"/>
       <c r="P599" t="s" s="2">
         <v>78</v>
@@ -71380,7 +71483,7 @@
         <v>78</v>
       </c>
       <c r="AL599" t="s" s="2">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="AM599" t="s" s="2">
         <v>78</v>
@@ -71391,7 +71494,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>197</v>
@@ -71503,7 +71606,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>201</v>
@@ -71615,7 +71718,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>202</v>
@@ -71729,7 +71832,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>203</v>
@@ -71845,7 +71948,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>204</v>
@@ -71959,7 +72062,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>210</v>
@@ -72073,7 +72176,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>215</v>
@@ -72185,7 +72288,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>219</v>
@@ -72297,7 +72400,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>220</v>
@@ -72411,7 +72514,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>221</v>
@@ -72527,7 +72630,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>222</v>
@@ -72639,7 +72742,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>227</v>
@@ -72753,7 +72856,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>231</v>
@@ -72865,7 +72968,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>234</v>
@@ -72977,7 +73080,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>236</v>
@@ -73089,7 +73192,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>239</v>
@@ -73201,7 +73304,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>242</v>
@@ -73313,7 +73416,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>246</v>
@@ -73425,7 +73528,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>247</v>
@@ -73539,7 +73642,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>248</v>
@@ -73655,7 +73758,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>249</v>
@@ -73767,7 +73870,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B621" t="s" s="2">
         <v>252</v>
@@ -73879,7 +73982,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B622" t="s" s="2">
         <v>255</v>
@@ -73993,7 +74096,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B623" t="s" s="2">
         <v>259</v>
@@ -74107,7 +74210,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B624" t="s" s="2">
         <v>263</v>
@@ -74221,13 +74324,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B625" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D625" t="s" s="2">
         <v>78</v>
@@ -74335,7 +74438,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B626" t="s" s="2">
         <v>183</v>
@@ -74447,7 +74550,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B627" t="s" s="2">
         <v>184</v>
@@ -74561,7 +74664,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B628" t="s" s="2">
         <v>185</v>
@@ -74677,7 +74780,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B629" t="s" s="2">
         <v>186</v>
@@ -74789,7 +74892,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B630" t="s" s="2">
         <v>189</v>
@@ -74903,14 +75006,14 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B631" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" t="s" s="2">
-        <v>389</v>
+        <v>921</v>
       </c>
       <c r="E631" s="2"/>
       <c r="F631" t="s" s="2">
@@ -74929,16 +75032,16 @@
         <v>78</v>
       </c>
       <c r="K631" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="L631" t="s" s="2">
-        <v>391</v>
+        <v>923</v>
       </c>
       <c r="M631" t="s" s="2">
-        <v>392</v>
+        <v>924</v>
       </c>
       <c r="N631" t="s" s="2">
-        <v>393</v>
+        <v>925</v>
       </c>
       <c r="O631" s="2"/>
       <c r="P631" t="s" s="2">
@@ -75003,10 +75106,10 @@
         <v>78</v>
       </c>
       <c r="AK631" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AL631" t="s" s="2">
-        <v>395</v>
+        <v>926</v>
       </c>
       <c r="AM631" t="s" s="2">
         <v>78</v>
@@ -85102,9 +85205,11 @@
         <v>1020</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C721" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C721" t="s" s="2">
+        <v>1021</v>
+      </c>
       <c r="D721" t="s" s="2">
         <v>78</v>
       </c>
@@ -85125,20 +85230,16 @@
         <v>89</v>
       </c>
       <c r="K721" t="s" s="2">
-        <v>1021</v>
+        <v>146</v>
       </c>
       <c r="L721" t="s" s="2">
-        <v>1022</v>
+        <v>178</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="N721" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="O721" t="s" s="2">
-        <v>1025</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N721" s="2"/>
+      <c r="O721" s="2"/>
       <c r="P721" t="s" s="2">
         <v>78</v>
       </c>
@@ -85186,30 +85287,3658 @@
         <v>78</v>
       </c>
       <c r="AF721" t="s" s="2">
-        <v>1020</v>
+        <v>176</v>
       </c>
       <c r="AG721" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH721" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI721" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ721" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK721" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL721" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM721" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN721" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B722" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C722" s="2"/>
+      <c r="D722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E722" s="2"/>
+      <c r="F722" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G722" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K722" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L722" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M722" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N722" s="2"/>
+      <c r="O722" s="2"/>
+      <c r="P722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q722" s="2"/>
+      <c r="R722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF722" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG722" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH722" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL722" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM722" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN722" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B723" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C723" s="2"/>
+      <c r="D723" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E723" s="2"/>
+      <c r="F723" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G723" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K723" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L723" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M723" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N723" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O723" s="2"/>
+      <c r="P723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q723" s="2"/>
+      <c r="R723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF723" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG723" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH723" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ723" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL723" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM723" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN723" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B724" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C724" s="2"/>
+      <c r="D724" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E724" s="2"/>
+      <c r="F724" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G724" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I724" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J724" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K724" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L724" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M724" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N724" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O724" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q724" s="2"/>
+      <c r="R724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF724" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG724" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH724" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ724" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL724" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM724" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN724" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B725" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C725" s="2"/>
+      <c r="D725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E725" s="2"/>
+      <c r="F725" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G725" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J725" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K725" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L725" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M725" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N725" s="2"/>
+      <c r="O725" s="2"/>
+      <c r="P725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q725" s="2"/>
+      <c r="R725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF725" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG725" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH725" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ725" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK721" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL721" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM721" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN721" t="s" s="2">
+      <c r="AK725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM725" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN725" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B726" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C726" s="2"/>
+      <c r="D726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E726" s="2"/>
+      <c r="F726" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G726" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J726" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K726" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L726" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M726" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N726" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O726" s="2"/>
+      <c r="P726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q726" s="2"/>
+      <c r="R726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF726" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG726" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH726" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ726" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM726" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN726" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="B727" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C727" s="2"/>
+      <c r="D727" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="E727" s="2"/>
+      <c r="F727" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G727" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K727" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L727" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M727" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N727" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O727" s="2"/>
+      <c r="P727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q727" s="2"/>
+      <c r="R727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF727" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG727" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH727" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK727" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL727" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM727" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN727" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B728" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C728" s="2"/>
+      <c r="D728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E728" s="2"/>
+      <c r="F728" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G728" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J728" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K728" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L728" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M728" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N728" s="2"/>
+      <c r="O728" s="2"/>
+      <c r="P728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q728" s="2"/>
+      <c r="R728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF728" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG728" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH728" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI728" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ728" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM728" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN728" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B729" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C729" s="2"/>
+      <c r="D729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E729" s="2"/>
+      <c r="F729" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G729" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K729" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L729" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M729" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N729" s="2"/>
+      <c r="O729" s="2"/>
+      <c r="P729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q729" s="2"/>
+      <c r="R729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF729" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG729" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH729" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL729" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM729" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN729" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B730" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C730" s="2"/>
+      <c r="D730" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E730" s="2"/>
+      <c r="F730" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G730" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K730" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L730" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M730" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N730" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O730" s="2"/>
+      <c r="P730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q730" s="2"/>
+      <c r="R730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF730" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG730" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH730" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ730" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL730" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM730" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN730" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B731" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C731" s="2"/>
+      <c r="D731" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E731" s="2"/>
+      <c r="F731" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G731" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I731" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J731" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K731" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L731" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M731" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N731" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O731" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q731" s="2"/>
+      <c r="R731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF731" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG731" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH731" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ731" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL731" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM731" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN731" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s" s="2">
+        <v>1033</v>
+      </c>
+      <c r="B732" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C732" s="2"/>
+      <c r="D732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E732" s="2"/>
+      <c r="F732" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G732" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J732" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K732" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L732" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M732" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N732" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O732" s="2"/>
+      <c r="P732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q732" s="2"/>
+      <c r="R732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X732" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y732" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z732" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF732" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG732" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH732" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ732" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM732" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN732" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="B733" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C733" s="2"/>
+      <c r="D733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E733" s="2"/>
+      <c r="F733" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G733" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J733" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K733" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L733" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M733" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N733" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O733" s="2"/>
+      <c r="P733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q733" s="2"/>
+      <c r="R733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF733" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG733" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH733" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ733" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM733" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN733" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="B734" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C734" s="2"/>
+      <c r="D734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E734" s="2"/>
+      <c r="F734" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G734" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J734" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K734" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L734" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M734" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N734" s="2"/>
+      <c r="O734" s="2"/>
+      <c r="P734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q734" s="2"/>
+      <c r="R734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF734" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG734" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH734" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI734" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ734" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM734" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN734" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B735" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C735" s="2"/>
+      <c r="D735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E735" s="2"/>
+      <c r="F735" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G735" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K735" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L735" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M735" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N735" s="2"/>
+      <c r="O735" s="2"/>
+      <c r="P735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q735" s="2"/>
+      <c r="R735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF735" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG735" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH735" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL735" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM735" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN735" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B736" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C736" s="2"/>
+      <c r="D736" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E736" s="2"/>
+      <c r="F736" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G736" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K736" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L736" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M736" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N736" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O736" s="2"/>
+      <c r="P736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q736" s="2"/>
+      <c r="R736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF736" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG736" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH736" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ736" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL736" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM736" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN736" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B737" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C737" s="2"/>
+      <c r="D737" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E737" s="2"/>
+      <c r="F737" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G737" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I737" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J737" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K737" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L737" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M737" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N737" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O737" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q737" s="2"/>
+      <c r="R737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF737" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG737" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH737" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ737" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL737" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM737" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN737" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="B738" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C738" s="2"/>
+      <c r="D738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E738" s="2"/>
+      <c r="F738" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G738" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J738" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K738" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L738" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M738" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N738" s="2"/>
+      <c r="O738" s="2"/>
+      <c r="P738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q738" s="2"/>
+      <c r="R738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X738" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y738" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z738" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AA738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF738" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG738" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH738" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ738" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM738" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN738" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="B739" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C739" s="2"/>
+      <c r="D739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E739" s="2"/>
+      <c r="F739" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G739" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J739" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K739" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L739" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M739" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N739" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O739" s="2"/>
+      <c r="P739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q739" s="2"/>
+      <c r="R739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF739" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG739" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH739" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ739" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM739" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN739" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="B740" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C740" s="2"/>
+      <c r="D740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E740" s="2"/>
+      <c r="F740" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G740" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J740" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K740" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L740" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M740" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N740" s="2"/>
+      <c r="O740" s="2"/>
+      <c r="P740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q740" s="2"/>
+      <c r="R740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF740" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG740" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH740" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ740" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM740" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN740" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="B741" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C741" s="2"/>
+      <c r="D741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E741" s="2"/>
+      <c r="F741" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G741" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J741" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K741" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L741" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M741" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N741" s="2"/>
+      <c r="O741" s="2"/>
+      <c r="P741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q741" s="2"/>
+      <c r="R741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF741" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG741" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH741" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ741" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM741" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN741" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="B742" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C742" s="2"/>
+      <c r="D742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E742" s="2"/>
+      <c r="F742" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G742" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J742" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K742" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L742" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M742" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N742" s="2"/>
+      <c r="O742" s="2"/>
+      <c r="P742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q742" s="2"/>
+      <c r="R742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF742" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG742" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH742" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ742" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM742" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN742" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="B743" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C743" s="2"/>
+      <c r="D743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E743" s="2"/>
+      <c r="F743" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G743" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J743" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K743" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L743" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M743" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N743" s="2"/>
+      <c r="O743" s="2"/>
+      <c r="P743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q743" s="2"/>
+      <c r="R743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF743" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG743" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH743" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ743" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM743" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN743" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="B744" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C744" s="2"/>
+      <c r="D744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E744" s="2"/>
+      <c r="F744" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G744" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J744" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K744" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L744" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M744" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N744" s="2"/>
+      <c r="O744" s="2"/>
+      <c r="P744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q744" s="2"/>
+      <c r="R744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF744" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG744" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH744" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI744" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AJ744" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM744" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN744" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="B745" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C745" s="2"/>
+      <c r="D745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E745" s="2"/>
+      <c r="F745" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G745" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K745" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L745" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M745" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N745" s="2"/>
+      <c r="O745" s="2"/>
+      <c r="P745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q745" s="2"/>
+      <c r="R745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF745" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG745" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH745" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL745" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM745" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN745" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B746" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C746" s="2"/>
+      <c r="D746" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E746" s="2"/>
+      <c r="F746" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G746" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K746" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L746" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M746" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N746" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O746" s="2"/>
+      <c r="P746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q746" s="2"/>
+      <c r="R746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF746" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG746" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH746" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ746" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL746" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM746" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN746" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="B747" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C747" s="2"/>
+      <c r="D747" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E747" s="2"/>
+      <c r="F747" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G747" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I747" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J747" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K747" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L747" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M747" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N747" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O747" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q747" s="2"/>
+      <c r="R747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF747" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG747" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH747" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ747" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL747" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM747" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN747" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B748" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C748" s="2"/>
+      <c r="D748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E748" s="2"/>
+      <c r="F748" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G748" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J748" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K748" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L748" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M748" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N748" s="2"/>
+      <c r="O748" s="2"/>
+      <c r="P748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q748" s="2"/>
+      <c r="R748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF748" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG748" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH748" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ748" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM748" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN748" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="B749" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C749" s="2"/>
+      <c r="D749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E749" s="2"/>
+      <c r="F749" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G749" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J749" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K749" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L749" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M749" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N749" s="2"/>
+      <c r="O749" s="2"/>
+      <c r="P749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q749" s="2"/>
+      <c r="R749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF749" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG749" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH749" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ749" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM749" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN749" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="B750" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C750" s="2"/>
+      <c r="D750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E750" s="2"/>
+      <c r="F750" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G750" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J750" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K750" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L750" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M750" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N750" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O750" s="2"/>
+      <c r="P750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q750" s="2"/>
+      <c r="R750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF750" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG750" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH750" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ750" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM750" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN750" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="B751" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C751" s="2"/>
+      <c r="D751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E751" s="2"/>
+      <c r="F751" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G751" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J751" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K751" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L751" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M751" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N751" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O751" s="2"/>
+      <c r="P751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q751" s="2"/>
+      <c r="R751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF751" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG751" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH751" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ751" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM751" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN751" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="B752" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C752" s="2"/>
+      <c r="D752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E752" s="2"/>
+      <c r="F752" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G752" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J752" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K752" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L752" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M752" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N752" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O752" s="2"/>
+      <c r="P752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q752" s="2"/>
+      <c r="R752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF752" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG752" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH752" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM752" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN752" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="B753" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="C753" s="2"/>
+      <c r="D753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E753" s="2"/>
+      <c r="F753" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G753" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J753" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K753" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="L753" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="M753" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="N753" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="O753" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="P753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q753" s="2"/>
+      <c r="R753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF753" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="AG753" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH753" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ753" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM753" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN753" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26886" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26886" uniqueCount="1064">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Bundle for EMS Run Report submission containing core patient, encounter, location, observations, documents, and workflow items.</t>
+    <t>Document Bundle for EMS Run Report submission. The first entry MUST be a Composition that organizes and references the other resources in the bundle (Patient, Encounter, Location, Observations, DocumentReference, Procedure, ServiceRequest, Task, Claim).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -404,7 +404,7 @@
     <t>It's possible to use a bundle for other purposes (e.g. a document can be accepted as a transaction). This is primarily defined so that there can be specific rules for some of the bundle types.</t>
   </si>
   <si>
-    <t>collection</t>
+    <t>document</t>
   </si>
   <si>
     <t>required</t>
@@ -573,7 +573,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -582,7 +582,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
+    <t xml:space="preserve">value:resource}
 </t>
   </si>
   <si>
@@ -855,6 +855,124 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
+    <t>Bundle.entry:composition</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-composition-ems}
+</t>
+  </si>
+  <si>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
+  </si>
+  <si>
+    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.outcome</t>
+  </si>
+  <si>
     <t>Bundle.entry:patient</t>
   </si>
   <si>
@@ -2148,109 +2266,6 @@
     <t>Bundle.entry:observationReportedComplaint.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:observationExtentOfInjury</t>
-  </si>
-  <si>
-    <t>observationExtentOfInjury</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-extent-of-injury}
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.outcome</t>
-  </si>
-  <si>
     <t>Bundle.entry:observationCallSource</t>
   </si>
   <si>
@@ -2355,9 +2370,6 @@
   </si>
   <si>
     <t>Bundle.entry:document</t>
-  </si>
-  <si>
-    <t>document</t>
   </si>
   <si>
     <t>Bundle.entry:document.id</t>
@@ -3617,7 +3629,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.9375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.64453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
@@ -9757,7 +9769,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9776,15 +9788,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -13478,7 +13492,7 @@
         <v>318</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -13486,7 +13500,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>197</v>
@@ -13598,7 +13612,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>201</v>
@@ -13710,7 +13724,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>202</v>
@@ -13824,7 +13838,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>203</v>
@@ -13940,7 +13954,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>204</v>
@@ -14054,7 +14068,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>210</v>
@@ -14168,7 +14182,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>215</v>
@@ -14280,7 +14294,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>219</v>
@@ -14392,7 +14406,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>220</v>
@@ -14506,7 +14520,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>221</v>
@@ -14622,7 +14636,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>222</v>
@@ -14734,7 +14748,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>227</v>
@@ -14848,7 +14862,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>231</v>
@@ -14960,7 +14974,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>234</v>
@@ -15072,7 +15086,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>236</v>
@@ -15184,7 +15198,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>239</v>
@@ -15296,7 +15310,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>242</v>
@@ -15408,7 +15422,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>246</v>
@@ -15520,7 +15534,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>247</v>
@@ -15634,7 +15648,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>248</v>
@@ -15750,7 +15764,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>249</v>
@@ -15862,7 +15876,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>252</v>
@@ -15974,7 +15988,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>255</v>
@@ -16088,7 +16102,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>259</v>
@@ -16202,7 +16216,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>263</v>
@@ -16316,20 +16330,20 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>88</v>
@@ -16430,7 +16444,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>183</v>
@@ -16542,7 +16556,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>184</v>
@@ -16656,7 +16670,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>185</v>
@@ -16772,7 +16786,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>186</v>
@@ -16884,7 +16898,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>189</v>
@@ -16998,14 +17012,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -17024,13 +17038,13 @@
         <v>78</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -17099,7 +17113,7 @@
         <v>78</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>78</v>
@@ -17110,7 +17124,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>197</v>
@@ -17222,7 +17236,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>201</v>
@@ -17334,7 +17348,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>202</v>
@@ -17448,7 +17462,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>203</v>
@@ -17564,7 +17578,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>204</v>
@@ -17678,7 +17692,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>210</v>
@@ -17792,7 +17806,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>215</v>
@@ -17904,7 +17918,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>219</v>
@@ -18016,7 +18030,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>220</v>
@@ -18130,7 +18144,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>221</v>
@@ -18246,7 +18260,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>222</v>
@@ -18358,7 +18372,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>227</v>
@@ -18472,7 +18486,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>231</v>
@@ -18584,7 +18598,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>234</v>
@@ -18696,7 +18710,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>236</v>
@@ -18808,7 +18822,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>239</v>
@@ -18920,7 +18934,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>242</v>
@@ -19032,7 +19046,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>246</v>
@@ -19144,7 +19158,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>247</v>
@@ -19258,7 +19272,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>248</v>
@@ -19374,7 +19388,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>249</v>
@@ -19486,7 +19500,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>252</v>
@@ -19598,7 +19612,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>255</v>
@@ -19712,7 +19726,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>259</v>
@@ -19826,7 +19840,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>263</v>
@@ -19940,20 +19954,20 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>88</v>
@@ -20054,7 +20068,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>183</v>
@@ -20166,7 +20180,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>184</v>
@@ -20280,7 +20294,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>185</v>
@@ -20396,7 +20410,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>186</v>
@@ -20508,7 +20522,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>189</v>
@@ -20622,14 +20636,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -20648,17 +20662,15 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N151" t="s" s="2">
         <v>393</v>
       </c>
+      <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>78</v>
@@ -20722,10 +20734,10 @@
         <v>78</v>
       </c>
       <c r="AK151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL151" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>78</v>
@@ -20736,7 +20748,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>197</v>
@@ -20848,7 +20860,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>201</v>
@@ -20960,7 +20972,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>202</v>
@@ -21074,7 +21086,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>203</v>
@@ -21190,7 +21202,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>204</v>
@@ -21304,7 +21316,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>210</v>
@@ -21418,7 +21430,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>215</v>
@@ -21530,7 +21542,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>219</v>
@@ -21642,7 +21654,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>220</v>
@@ -21756,7 +21768,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>221</v>
@@ -21872,7 +21884,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>222</v>
@@ -21984,7 +21996,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>227</v>
@@ -22098,7 +22110,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>231</v>
@@ -22210,7 +22222,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>234</v>
@@ -22322,7 +22334,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>236</v>
@@ -22434,7 +22446,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>239</v>
@@ -22546,7 +22558,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>242</v>
@@ -22658,7 +22670,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>246</v>
@@ -22770,7 +22782,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>247</v>
@@ -22884,7 +22896,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>248</v>
@@ -23000,7 +23012,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>249</v>
@@ -23112,7 +23124,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>252</v>
@@ -23224,7 +23236,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>255</v>
@@ -23338,7 +23350,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>259</v>
@@ -23452,7 +23464,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>263</v>
@@ -23566,20 +23578,20 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>88</v>
@@ -23680,7 +23692,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>183</v>
@@ -23792,7 +23804,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>184</v>
@@ -23906,7 +23918,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>185</v>
@@ -24022,7 +24034,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>186</v>
@@ -24134,7 +24146,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>189</v>
@@ -24248,14 +24260,14 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
@@ -24277,13 +24289,13 @@
         <v>429</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -24348,10 +24360,10 @@
         <v>78</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>78</v>
@@ -24362,7 +24374,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>197</v>
@@ -24474,7 +24486,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>201</v>
@@ -24586,7 +24598,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>202</v>
@@ -24700,7 +24712,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>203</v>
@@ -24816,7 +24828,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>204</v>
@@ -24930,7 +24942,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>210</v>
@@ -25044,7 +25056,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>215</v>
@@ -25156,7 +25168,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>219</v>
@@ -25268,7 +25280,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>220</v>
@@ -25382,7 +25394,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>221</v>
@@ -25498,7 +25510,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>222</v>
@@ -25610,7 +25622,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>227</v>
@@ -25724,7 +25736,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>231</v>
@@ -25836,7 +25848,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>234</v>
@@ -25948,7 +25960,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>236</v>
@@ -26060,7 +26072,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>239</v>
@@ -26172,7 +26184,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>242</v>
@@ -26284,7 +26296,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>246</v>
@@ -26396,7 +26408,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>247</v>
@@ -26510,7 +26522,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>248</v>
@@ -26626,7 +26638,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>249</v>
@@ -26738,7 +26750,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>252</v>
@@ -26850,7 +26862,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>255</v>
@@ -26964,7 +26976,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>259</v>
@@ -27078,7 +27090,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>263</v>
@@ -27192,13 +27204,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -27306,7 +27318,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>183</v>
@@ -27418,7 +27430,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>184</v>
@@ -27532,7 +27544,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>185</v>
@@ -27648,7 +27660,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>186</v>
@@ -27760,7 +27772,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>189</v>
@@ -27874,14 +27886,14 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -27900,16 +27912,16 @@
         <v>78</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -27974,10 +27986,10 @@
         <v>78</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>78</v>
@@ -27988,7 +28000,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>197</v>
@@ -28100,7 +28112,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>201</v>
@@ -28212,7 +28224,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>202</v>
@@ -28326,7 +28338,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>203</v>
@@ -28442,7 +28454,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>204</v>
@@ -28556,7 +28568,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>210</v>
@@ -28670,7 +28682,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>215</v>
@@ -28782,7 +28794,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>219</v>
@@ -28894,7 +28906,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>220</v>
@@ -29008,7 +29020,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>221</v>
@@ -29124,7 +29136,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>222</v>
@@ -29236,7 +29248,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>227</v>
@@ -29350,7 +29362,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>231</v>
@@ -29462,7 +29474,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>234</v>
@@ -29574,7 +29586,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>236</v>
@@ -29686,7 +29698,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>239</v>
@@ -29798,7 +29810,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>242</v>
@@ -29910,7 +29922,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>246</v>
@@ -30022,7 +30034,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>247</v>
@@ -30136,7 +30148,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>248</v>
@@ -30252,7 +30264,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>249</v>
@@ -30364,7 +30376,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>252</v>
@@ -30476,7 +30488,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>255</v>
@@ -30590,7 +30602,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>259</v>
@@ -30704,7 +30716,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>263</v>
@@ -30818,13 +30830,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>78</v>
@@ -30932,7 +30944,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>183</v>
@@ -31044,7 +31056,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>184</v>
@@ -31158,7 +31170,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>185</v>
@@ -31274,7 +31286,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>186</v>
@@ -31386,7 +31398,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>189</v>
@@ -31500,14 +31512,14 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -31526,16 +31538,16 @@
         <v>78</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
@@ -31600,10 +31612,10 @@
         <v>78</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>78</v>
@@ -31614,7 +31626,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>197</v>
@@ -31726,7 +31738,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>201</v>
@@ -31838,7 +31850,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>202</v>
@@ -31952,7 +31964,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>203</v>
@@ -32068,7 +32080,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>204</v>
@@ -32182,7 +32194,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>210</v>
@@ -32296,7 +32308,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>215</v>
@@ -32408,7 +32420,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>219</v>
@@ -32520,7 +32532,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>220</v>
@@ -32634,7 +32646,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>221</v>
@@ -32750,7 +32762,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>222</v>
@@ -32862,7 +32874,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>227</v>
@@ -32976,7 +32988,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>231</v>
@@ -33088,7 +33100,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>234</v>
@@ -33200,7 +33212,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>236</v>
@@ -33312,7 +33324,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>239</v>
@@ -33424,7 +33436,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>242</v>
@@ -33536,7 +33548,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>246</v>
@@ -33648,7 +33660,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>247</v>
@@ -33762,7 +33774,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>248</v>
@@ -33878,7 +33890,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>249</v>
@@ -33990,7 +34002,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>252</v>
@@ -34102,7 +34114,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>255</v>
@@ -34216,7 +34228,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>259</v>
@@ -34330,7 +34342,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>263</v>
@@ -34444,13 +34456,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>78</v>
@@ -34558,7 +34570,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>183</v>
@@ -34670,7 +34682,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>184</v>
@@ -34784,7 +34796,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>185</v>
@@ -34900,7 +34912,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>186</v>
@@ -35012,7 +35024,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>189</v>
@@ -35126,14 +35138,14 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
@@ -35152,16 +35164,16 @@
         <v>78</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
@@ -35226,10 +35238,10 @@
         <v>78</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>78</v>
@@ -35240,7 +35252,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>197</v>
@@ -35352,7 +35364,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>201</v>
@@ -35464,7 +35476,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>202</v>
@@ -35578,7 +35590,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>203</v>
@@ -35694,7 +35706,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>204</v>
@@ -35808,7 +35820,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>210</v>
@@ -35922,7 +35934,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>215</v>
@@ -36034,7 +36046,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>219</v>
@@ -36146,7 +36158,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>220</v>
@@ -36260,7 +36272,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>221</v>
@@ -36376,7 +36388,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>222</v>
@@ -36488,7 +36500,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>227</v>
@@ -36602,7 +36614,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>231</v>
@@ -36714,7 +36726,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>234</v>
@@ -36826,7 +36838,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>236</v>
@@ -36938,7 +36950,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>239</v>
@@ -37050,7 +37062,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>242</v>
@@ -37162,7 +37174,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>246</v>
@@ -37274,7 +37286,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>247</v>
@@ -37388,7 +37400,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>248</v>
@@ -37504,7 +37516,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>249</v>
@@ -37616,7 +37628,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>252</v>
@@ -37728,7 +37740,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>255</v>
@@ -37842,7 +37854,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>259</v>
@@ -37956,7 +37968,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>263</v>
@@ -38070,13 +38082,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>78</v>
@@ -38184,7 +38196,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>183</v>
@@ -38296,7 +38308,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>184</v>
@@ -38410,7 +38422,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>185</v>
@@ -38526,7 +38538,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>186</v>
@@ -38638,7 +38650,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>189</v>
@@ -38752,14 +38764,14 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
@@ -38778,16 +38790,16 @@
         <v>78</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
@@ -38852,10 +38864,10 @@
         <v>78</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>78</v>
@@ -38866,7 +38878,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>197</v>
@@ -38978,7 +38990,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>201</v>
@@ -39090,7 +39102,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>202</v>
@@ -39204,7 +39216,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>203</v>
@@ -39320,7 +39332,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>204</v>
@@ -39434,7 +39446,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>210</v>
@@ -39548,7 +39560,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>215</v>
@@ -39660,7 +39672,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>219</v>
@@ -39772,7 +39784,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>220</v>
@@ -39886,7 +39898,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>221</v>
@@ -40002,7 +40014,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>222</v>
@@ -40114,7 +40126,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>227</v>
@@ -40228,7 +40240,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>231</v>
@@ -40340,7 +40352,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>234</v>
@@ -40452,7 +40464,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>236</v>
@@ -40564,7 +40576,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>239</v>
@@ -40676,7 +40688,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>242</v>
@@ -40788,7 +40800,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>246</v>
@@ -40900,7 +40912,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>247</v>
@@ -41014,7 +41026,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>248</v>
@@ -41130,7 +41142,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>249</v>
@@ -41242,7 +41254,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>252</v>
@@ -41354,7 +41366,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>255</v>
@@ -41468,7 +41480,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>259</v>
@@ -41582,7 +41594,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>263</v>
@@ -41696,13 +41708,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>78</v>
@@ -41712,7 +41724,7 @@
         <v>79</v>
       </c>
       <c r="G337" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H337" t="s" s="2">
         <v>78</v>
@@ -41810,7 +41822,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>183</v>
@@ -41922,7 +41934,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>184</v>
@@ -42036,7 +42048,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>185</v>
@@ -42152,7 +42164,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>186</v>
@@ -42264,7 +42276,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>189</v>
@@ -42378,14 +42390,14 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -42404,16 +42416,16 @@
         <v>78</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
@@ -42478,10 +42490,10 @@
         <v>78</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>78</v>
@@ -42492,7 +42504,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>197</v>
@@ -42604,7 +42616,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>201</v>
@@ -42716,7 +42728,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>202</v>
@@ -42830,7 +42842,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>203</v>
@@ -42946,7 +42958,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>204</v>
@@ -43060,7 +43072,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>210</v>
@@ -43174,7 +43186,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>215</v>
@@ -43286,7 +43298,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>219</v>
@@ -43398,7 +43410,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>220</v>
@@ -43512,7 +43524,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>221</v>
@@ -43628,7 +43640,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>222</v>
@@ -43740,7 +43752,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>227</v>
@@ -43854,7 +43866,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>231</v>
@@ -43966,7 +43978,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>234</v>
@@ -44078,7 +44090,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>236</v>
@@ -44190,7 +44202,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>239</v>
@@ -44302,7 +44314,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>242</v>
@@ -44414,7 +44426,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>246</v>
@@ -44526,7 +44538,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>247</v>
@@ -44640,7 +44652,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>248</v>
@@ -44756,7 +44768,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>249</v>
@@ -44868,7 +44880,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>252</v>
@@ -44980,7 +44992,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>255</v>
@@ -45094,7 +45106,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>259</v>
@@ -45208,7 +45220,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>263</v>
@@ -45322,13 +45334,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>78</v>
@@ -45338,7 +45350,7 @@
         <v>79</v>
       </c>
       <c r="G369" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H369" t="s" s="2">
         <v>78</v>
@@ -45436,7 +45448,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>183</v>
@@ -45548,7 +45560,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>184</v>
@@ -45662,7 +45674,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>185</v>
@@ -45778,7 +45790,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>186</v>
@@ -45890,7 +45902,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>189</v>
@@ -46004,14 +46016,14 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
@@ -46030,16 +46042,16 @@
         <v>78</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
@@ -46104,10 +46116,10 @@
         <v>78</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM375" t="s" s="2">
         <v>78</v>
@@ -46118,7 +46130,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>197</v>
@@ -46230,7 +46242,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>201</v>
@@ -46342,7 +46354,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>202</v>
@@ -46456,7 +46468,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>203</v>
@@ -46572,7 +46584,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>204</v>
@@ -46686,7 +46698,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>210</v>
@@ -46800,7 +46812,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>215</v>
@@ -46912,7 +46924,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>219</v>
@@ -47024,7 +47036,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>220</v>
@@ -47138,7 +47150,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>221</v>
@@ -47254,7 +47266,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>222</v>
@@ -47366,7 +47378,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>227</v>
@@ -47480,7 +47492,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>231</v>
@@ -47592,7 +47604,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>234</v>
@@ -47704,7 +47716,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>236</v>
@@ -47816,7 +47828,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>239</v>
@@ -47928,7 +47940,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>242</v>
@@ -48040,7 +48052,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>246</v>
@@ -48152,7 +48164,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>247</v>
@@ -48266,7 +48278,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>248</v>
@@ -48382,7 +48394,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>249</v>
@@ -48494,7 +48506,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>252</v>
@@ -48606,7 +48618,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>255</v>
@@ -48720,7 +48732,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>259</v>
@@ -48834,7 +48846,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>263</v>
@@ -48948,13 +48960,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>78</v>
@@ -49062,7 +49074,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>183</v>
@@ -49174,7 +49186,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>184</v>
@@ -49288,7 +49300,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>185</v>
@@ -49404,7 +49416,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>186</v>
@@ -49516,7 +49528,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>189</v>
@@ -49630,14 +49642,14 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
@@ -49656,16 +49668,16 @@
         <v>78</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O407" s="2"/>
       <c r="P407" t="s" s="2">
@@ -49730,10 +49742,10 @@
         <v>78</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM407" t="s" s="2">
         <v>78</v>
@@ -49744,7 +49756,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>197</v>
@@ -49856,7 +49868,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>201</v>
@@ -49968,7 +49980,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>202</v>
@@ -50082,7 +50094,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>203</v>
@@ -50198,7 +50210,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>204</v>
@@ -50312,7 +50324,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>210</v>
@@ -50426,7 +50438,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>215</v>
@@ -50538,7 +50550,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>219</v>
@@ -50650,7 +50662,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>220</v>
@@ -50764,7 +50776,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>221</v>
@@ -50880,7 +50892,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>222</v>
@@ -50992,7 +51004,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>227</v>
@@ -51106,7 +51118,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>231</v>
@@ -51218,7 +51230,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>234</v>
@@ -51330,7 +51342,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>236</v>
@@ -51442,7 +51454,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>239</v>
@@ -51554,7 +51566,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>242</v>
@@ -51666,7 +51678,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>246</v>
@@ -51778,7 +51790,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>247</v>
@@ -51892,7 +51904,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>248</v>
@@ -52008,7 +52020,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>249</v>
@@ -52120,7 +52132,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>252</v>
@@ -52232,7 +52244,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>255</v>
@@ -52346,7 +52358,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>259</v>
@@ -52460,7 +52472,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>263</v>
@@ -52574,13 +52586,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D433" t="s" s="2">
         <v>78</v>
@@ -52688,7 +52700,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>183</v>
@@ -52800,7 +52812,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>184</v>
@@ -52914,7 +52926,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>185</v>
@@ -53030,7 +53042,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>186</v>
@@ -53142,7 +53154,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>189</v>
@@ -53256,14 +53268,14 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E439" s="2"/>
       <c r="F439" t="s" s="2">
@@ -53282,16 +53294,16 @@
         <v>78</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O439" s="2"/>
       <c r="P439" t="s" s="2">
@@ -53356,10 +53368,10 @@
         <v>78</v>
       </c>
       <c r="AK439" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL439" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM439" t="s" s="2">
         <v>78</v>
@@ -53370,7 +53382,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>197</v>
@@ -53482,7 +53494,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>201</v>
@@ -53594,7 +53606,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>202</v>
@@ -53708,7 +53720,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>203</v>
@@ -53824,7 +53836,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>204</v>
@@ -53938,7 +53950,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>210</v>
@@ -54052,7 +54064,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>215</v>
@@ -54164,7 +54176,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>219</v>
@@ -54276,7 +54288,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>220</v>
@@ -54390,7 +54402,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>221</v>
@@ -54506,7 +54518,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>222</v>
@@ -54618,7 +54630,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>227</v>
@@ -54732,7 +54744,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>231</v>
@@ -54844,7 +54856,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>234</v>
@@ -54956,7 +54968,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>236</v>
@@ -55068,7 +55080,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>239</v>
@@ -55180,7 +55192,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>242</v>
@@ -55292,7 +55304,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>246</v>
@@ -55404,7 +55416,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>247</v>
@@ -55518,7 +55530,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>248</v>
@@ -55634,7 +55646,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>249</v>
@@ -55746,7 +55758,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>252</v>
@@ -55858,7 +55870,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>255</v>
@@ -55972,7 +55984,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>259</v>
@@ -56086,7 +56098,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>263</v>
@@ -56200,13 +56212,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="D465" t="s" s="2">
         <v>78</v>
@@ -56314,7 +56326,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>183</v>
@@ -56426,7 +56438,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>184</v>
@@ -56540,7 +56552,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>185</v>
@@ -56656,7 +56668,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>186</v>
@@ -56768,7 +56780,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>189</v>
@@ -56882,14 +56894,14 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E471" s="2"/>
       <c r="F471" t="s" s="2">
@@ -56908,16 +56920,16 @@
         <v>78</v>
       </c>
       <c r="K471" t="s" s="2">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
@@ -56982,10 +56994,10 @@
         <v>78</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL471" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM471" t="s" s="2">
         <v>78</v>
@@ -56996,7 +57008,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>197</v>
@@ -57108,7 +57120,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>201</v>
@@ -57220,7 +57232,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>202</v>
@@ -57334,7 +57346,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>203</v>
@@ -57450,7 +57462,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>204</v>
@@ -57564,7 +57576,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>210</v>
@@ -57678,7 +57690,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>215</v>
@@ -57790,7 +57802,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>219</v>
@@ -57902,7 +57914,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>220</v>
@@ -58016,7 +58028,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>221</v>
@@ -58132,7 +58144,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>222</v>
@@ -58244,7 +58256,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>227</v>
@@ -58358,7 +58370,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>231</v>
@@ -58470,7 +58482,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>234</v>
@@ -58582,7 +58594,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>236</v>
@@ -58694,7 +58706,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>239</v>
@@ -58806,7 +58818,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>242</v>
@@ -58918,7 +58930,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>246</v>
@@ -59030,7 +59042,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>247</v>
@@ -59144,7 +59156,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>248</v>
@@ -59260,7 +59272,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>249</v>
@@ -59372,7 +59384,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>252</v>
@@ -59484,7 +59496,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>255</v>
@@ -59598,7 +59610,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>259</v>
@@ -59712,7 +59724,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>263</v>
@@ -59826,13 +59838,13 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="D497" t="s" s="2">
         <v>78</v>
@@ -59940,7 +59952,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>183</v>
@@ -60052,7 +60064,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>184</v>
@@ -60166,7 +60178,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>185</v>
@@ -60282,7 +60294,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>186</v>
@@ -60394,7 +60406,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>189</v>
@@ -60508,7 +60520,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>193</v>
@@ -60534,16 +60546,16 @@
         <v>78</v>
       </c>
       <c r="K503" t="s" s="2">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="L503" t="s" s="2">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="M503" t="s" s="2">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="N503" t="s" s="2">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="O503" s="2"/>
       <c r="P503" t="s" s="2">
@@ -60611,10 +60623,10 @@
         <v>78</v>
       </c>
       <c r="AL503" t="s" s="2">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="AM503" t="s" s="2">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="AN503" t="s" s="2">
         <v>78</v>
@@ -60622,7 +60634,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>197</v>
@@ -60734,7 +60746,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>201</v>
@@ -60846,7 +60858,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>202</v>
@@ -60960,7 +60972,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>203</v>
@@ -61076,7 +61088,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>204</v>
@@ -61190,7 +61202,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>210</v>
@@ -61304,7 +61316,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>215</v>
@@ -61416,7 +61428,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>219</v>
@@ -61528,7 +61540,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>220</v>
@@ -61642,7 +61654,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>221</v>
@@ -61758,7 +61770,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>222</v>
@@ -61870,7 +61882,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>227</v>
@@ -61984,7 +61996,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>231</v>
@@ -62096,7 +62108,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>234</v>
@@ -62208,7 +62220,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>236</v>
@@ -62320,7 +62332,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>239</v>
@@ -62432,7 +62444,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>242</v>
@@ -62544,7 +62556,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>246</v>
@@ -62656,7 +62668,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>247</v>
@@ -62770,7 +62782,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>248</v>
@@ -62886,7 +62898,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>249</v>
@@ -62998,7 +63010,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>252</v>
@@ -63110,7 +63122,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>255</v>
@@ -63224,7 +63236,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>259</v>
@@ -63338,7 +63350,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>263</v>
@@ -63452,13 +63464,13 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D529" t="s" s="2">
         <v>78</v>
@@ -63566,7 +63578,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>183</v>
@@ -63678,7 +63690,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>184</v>
@@ -63792,7 +63804,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>185</v>
@@ -63908,7 +63920,7 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>186</v>
@@ -64020,7 +64032,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>189</v>
@@ -64134,7 +64146,7 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>193</v>
@@ -64160,13 +64172,13 @@
         <v>78</v>
       </c>
       <c r="K535" t="s" s="2">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="L535" t="s" s="2">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="M535" t="s" s="2">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="N535" s="2"/>
       <c r="O535" s="2"/>
@@ -64235,7 +64247,7 @@
         <v>78</v>
       </c>
       <c r="AL535" t="s" s="2">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="AM535" t="s" s="2">
         <v>78</v>
@@ -64246,7 +64258,7 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>197</v>
@@ -64358,7 +64370,7 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>201</v>
@@ -64470,7 +64482,7 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>202</v>
@@ -64584,7 +64596,7 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>203</v>
@@ -64700,7 +64712,7 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>204</v>
@@ -64814,7 +64826,7 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>210</v>
@@ -64928,7 +64940,7 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>215</v>
@@ -65040,7 +65052,7 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>219</v>
@@ -65152,7 +65164,7 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>220</v>
@@ -65266,7 +65278,7 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>221</v>
@@ -65382,7 +65394,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>222</v>
@@ -65494,7 +65506,7 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>227</v>
@@ -65608,7 +65620,7 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>231</v>
@@ -65720,7 +65732,7 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>234</v>
@@ -65832,7 +65844,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>236</v>
@@ -65944,7 +65956,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>239</v>
@@ -66056,7 +66068,7 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>242</v>
@@ -66168,7 +66180,7 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>246</v>
@@ -66280,7 +66292,7 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>247</v>
@@ -66394,7 +66406,7 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>248</v>
@@ -66510,7 +66522,7 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>249</v>
@@ -66622,7 +66634,7 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>252</v>
@@ -66734,7 +66746,7 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>255</v>
@@ -66848,7 +66860,7 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>259</v>
@@ -66962,7 +66974,7 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>263</v>
@@ -67076,13 +67088,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D561" t="s" s="2">
         <v>78</v>
@@ -67190,7 +67202,7 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>183</v>
@@ -67302,7 +67314,7 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>184</v>
@@ -67416,7 +67428,7 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>185</v>
@@ -67532,7 +67544,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>186</v>
@@ -67644,7 +67656,7 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>189</v>
@@ -67758,14 +67770,14 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" t="s" s="2">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E567" s="2"/>
       <c r="F567" t="s" s="2">
@@ -67784,13 +67796,13 @@
         <v>78</v>
       </c>
       <c r="K567" t="s" s="2">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="L567" t="s" s="2">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="N567" s="2"/>
       <c r="O567" s="2"/>
@@ -67856,10 +67868,10 @@
         <v>78</v>
       </c>
       <c r="AK567" t="s" s="2">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="AL567" t="s" s="2">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="AM567" t="s" s="2">
         <v>78</v>
@@ -67870,7 +67882,7 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>197</v>
@@ -67982,7 +67994,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B569" t="s" s="2">
         <v>201</v>
@@ -68094,7 +68106,7 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B570" t="s" s="2">
         <v>202</v>
@@ -68208,7 +68220,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B571" t="s" s="2">
         <v>203</v>
@@ -68324,7 +68336,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B572" t="s" s="2">
         <v>204</v>
@@ -68438,7 +68450,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B573" t="s" s="2">
         <v>210</v>
@@ -68552,7 +68564,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B574" t="s" s="2">
         <v>215</v>
@@ -68664,7 +68676,7 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B575" t="s" s="2">
         <v>219</v>
@@ -68776,7 +68788,7 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B576" t="s" s="2">
         <v>220</v>
@@ -68890,7 +68902,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B577" t="s" s="2">
         <v>221</v>
@@ -69006,7 +69018,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B578" t="s" s="2">
         <v>222</v>
@@ -69118,7 +69130,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>227</v>
@@ -69232,7 +69244,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>231</v>
@@ -69344,7 +69356,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>234</v>
@@ -69456,7 +69468,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>236</v>
@@ -69568,7 +69580,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>239</v>
@@ -69680,7 +69692,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>242</v>
@@ -69792,7 +69804,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>246</v>
@@ -69904,7 +69916,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>247</v>
@@ -70018,7 +70030,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B587" t="s" s="2">
         <v>248</v>
@@ -70134,7 +70146,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B588" t="s" s="2">
         <v>249</v>
@@ -70246,7 +70258,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B589" t="s" s="2">
         <v>252</v>
@@ -70358,7 +70370,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B590" t="s" s="2">
         <v>255</v>
@@ -70472,7 +70484,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B591" t="s" s="2">
         <v>259</v>
@@ -70586,7 +70598,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>263</v>
@@ -70700,13 +70712,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D593" t="s" s="2">
         <v>78</v>
@@ -70814,7 +70826,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>183</v>
@@ -70926,7 +70938,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>184</v>
@@ -71040,7 +71052,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>185</v>
@@ -71156,7 +71168,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>186</v>
@@ -71268,7 +71280,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>189</v>
@@ -71382,7 +71394,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>193</v>
@@ -71408,13 +71420,13 @@
         <v>78</v>
       </c>
       <c r="K599" t="s" s="2">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="L599" t="s" s="2">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="N599" s="2"/>
       <c r="O599" s="2"/>
@@ -71483,7 +71495,7 @@
         <v>78</v>
       </c>
       <c r="AL599" t="s" s="2">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="AM599" t="s" s="2">
         <v>78</v>
@@ -71494,7 +71506,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>197</v>
@@ -71606,7 +71618,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>201</v>
@@ -71718,7 +71730,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>202</v>
@@ -71832,7 +71844,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>203</v>
@@ -71948,7 +71960,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>204</v>
@@ -72062,7 +72074,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>210</v>
@@ -72176,7 +72188,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>215</v>
@@ -72288,7 +72300,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>219</v>
@@ -72400,7 +72412,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>220</v>
@@ -72514,7 +72526,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>221</v>
@@ -72630,7 +72642,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>222</v>
@@ -72742,7 +72754,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>227</v>
@@ -72856,7 +72868,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>231</v>
@@ -72968,7 +72980,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>234</v>
@@ -73080,7 +73092,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>236</v>
@@ -73192,7 +73204,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>239</v>
@@ -73304,7 +73316,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>242</v>
@@ -73416,7 +73428,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>246</v>
@@ -73528,7 +73540,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>247</v>
@@ -73642,7 +73654,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>248</v>
@@ -73758,7 +73770,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>249</v>
@@ -73870,7 +73882,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B621" t="s" s="2">
         <v>252</v>
@@ -73982,7 +73994,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B622" t="s" s="2">
         <v>255</v>
@@ -74096,7 +74108,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B623" t="s" s="2">
         <v>259</v>
@@ -74210,7 +74222,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B624" t="s" s="2">
         <v>263</v>
@@ -74324,13 +74336,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B625" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D625" t="s" s="2">
         <v>78</v>
@@ -74438,7 +74450,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B626" t="s" s="2">
         <v>183</v>
@@ -74550,7 +74562,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B627" t="s" s="2">
         <v>184</v>
@@ -74664,7 +74676,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B628" t="s" s="2">
         <v>185</v>
@@ -74780,7 +74792,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B629" t="s" s="2">
         <v>186</v>
@@ -74892,7 +74904,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B630" t="s" s="2">
         <v>189</v>
@@ -75006,14 +75018,14 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B631" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="E631" s="2"/>
       <c r="F631" t="s" s="2">
@@ -75032,16 +75044,16 @@
         <v>78</v>
       </c>
       <c r="K631" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="L631" t="s" s="2">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="M631" t="s" s="2">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="N631" t="s" s="2">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="O631" s="2"/>
       <c r="P631" t="s" s="2">
@@ -75109,7 +75121,7 @@
         <v>78</v>
       </c>
       <c r="AL631" t="s" s="2">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="AM631" t="s" s="2">
         <v>78</v>
@@ -75120,7 +75132,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B632" t="s" s="2">
         <v>197</v>
@@ -75232,7 +75244,7 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B633" t="s" s="2">
         <v>201</v>
@@ -75344,7 +75356,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B634" t="s" s="2">
         <v>202</v>
@@ -75458,7 +75470,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B635" t="s" s="2">
         <v>203</v>
@@ -75574,7 +75586,7 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B636" t="s" s="2">
         <v>204</v>
@@ -75688,7 +75700,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="B637" t="s" s="2">
         <v>210</v>
@@ -75802,7 +75814,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B638" t="s" s="2">
         <v>215</v>
@@ -75914,7 +75926,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B639" t="s" s="2">
         <v>219</v>
@@ -76026,7 +76038,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B640" t="s" s="2">
         <v>220</v>
@@ -76140,7 +76152,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B641" t="s" s="2">
         <v>221</v>
@@ -76256,7 +76268,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B642" t="s" s="2">
         <v>222</v>
@@ -76368,7 +76380,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B643" t="s" s="2">
         <v>227</v>
@@ -76482,7 +76494,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B644" t="s" s="2">
         <v>231</v>
@@ -76594,7 +76606,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B645" t="s" s="2">
         <v>234</v>
@@ -76706,7 +76718,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B646" t="s" s="2">
         <v>236</v>
@@ -76818,7 +76830,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B647" t="s" s="2">
         <v>239</v>
@@ -76930,7 +76942,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="B648" t="s" s="2">
         <v>242</v>
@@ -77042,7 +77054,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="B649" t="s" s="2">
         <v>246</v>
@@ -77154,7 +77166,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B650" t="s" s="2">
         <v>247</v>
@@ -77268,7 +77280,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B651" t="s" s="2">
         <v>248</v>
@@ -77384,7 +77396,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B652" t="s" s="2">
         <v>249</v>
@@ -77496,7 +77508,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B653" t="s" s="2">
         <v>252</v>
@@ -77608,7 +77620,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B654" t="s" s="2">
         <v>255</v>
@@ -77722,7 +77734,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B655" t="s" s="2">
         <v>259</v>
@@ -77836,7 +77848,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>263</v>
@@ -77950,13 +77962,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="D657" t="s" s="2">
         <v>78</v>
@@ -78064,7 +78076,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>183</v>
@@ -78176,7 +78188,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>184</v>
@@ -78290,7 +78302,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>185</v>
@@ -78406,7 +78418,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>186</v>
@@ -78518,7 +78530,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>189</v>
@@ -78632,14 +78644,14 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E663" s="2"/>
       <c r="F663" t="s" s="2">
@@ -78658,16 +78670,16 @@
         <v>78</v>
       </c>
       <c r="K663" t="s" s="2">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="L663" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M663" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N663" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O663" s="2"/>
       <c r="P663" t="s" s="2">
@@ -78732,10 +78744,10 @@
         <v>78</v>
       </c>
       <c r="AK663" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL663" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM663" t="s" s="2">
         <v>78</v>
@@ -78746,7 +78758,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>197</v>
@@ -78858,7 +78870,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>201</v>
@@ -78970,7 +78982,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>202</v>
@@ -79084,7 +79096,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>203</v>
@@ -79200,7 +79212,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>204</v>
@@ -79314,7 +79326,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>210</v>
@@ -79428,7 +79440,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>215</v>
@@ -79540,7 +79552,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>219</v>
@@ -79652,7 +79664,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>220</v>
@@ -79766,7 +79778,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>221</v>
@@ -79882,7 +79894,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>222</v>
@@ -79994,7 +80006,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>227</v>
@@ -80108,7 +80120,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>231</v>
@@ -80220,7 +80232,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>234</v>
@@ -80332,7 +80344,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>236</v>
@@ -80444,7 +80456,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>239</v>
@@ -80556,7 +80568,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>242</v>
@@ -80668,7 +80680,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>246</v>
@@ -80780,7 +80792,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>247</v>
@@ -80894,7 +80906,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>248</v>
@@ -81010,7 +81022,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="B684" t="s" s="2">
         <v>249</v>
@@ -81122,7 +81134,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B685" t="s" s="2">
         <v>252</v>
@@ -81234,7 +81246,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>255</v>
@@ -81348,7 +81360,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>259</v>
@@ -81462,7 +81474,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>263</v>
@@ -81576,13 +81588,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="D689" t="s" s="2">
         <v>78</v>
@@ -81690,7 +81702,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>183</v>
@@ -81802,7 +81814,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>184</v>
@@ -81916,7 +81928,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>185</v>
@@ -82032,7 +82044,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>186</v>
@@ -82144,7 +82156,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>189</v>
@@ -82258,14 +82270,14 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E695" s="2"/>
       <c r="F695" t="s" s="2">
@@ -82284,16 +82296,16 @@
         <v>78</v>
       </c>
       <c r="K695" t="s" s="2">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="L695" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M695" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N695" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O695" s="2"/>
       <c r="P695" t="s" s="2">
@@ -82358,10 +82370,10 @@
         <v>78</v>
       </c>
       <c r="AK695" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL695" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM695" t="s" s="2">
         <v>78</v>
@@ -82372,7 +82384,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>197</v>
@@ -82484,7 +82496,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>201</v>
@@ -82596,7 +82608,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B698" t="s" s="2">
         <v>202</v>
@@ -82710,7 +82722,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B699" t="s" s="2">
         <v>203</v>
@@ -82826,7 +82838,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B700" t="s" s="2">
         <v>204</v>
@@ -82940,7 +82952,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B701" t="s" s="2">
         <v>210</v>
@@ -83054,7 +83066,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B702" t="s" s="2">
         <v>215</v>
@@ -83166,7 +83178,7 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B703" t="s" s="2">
         <v>219</v>
@@ -83278,7 +83290,7 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B704" t="s" s="2">
         <v>220</v>
@@ -83392,7 +83404,7 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B705" t="s" s="2">
         <v>221</v>
@@ -83508,7 +83520,7 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B706" t="s" s="2">
         <v>222</v>
@@ -83620,7 +83632,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B707" t="s" s="2">
         <v>227</v>
@@ -83734,7 +83746,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B708" t="s" s="2">
         <v>231</v>
@@ -83846,7 +83858,7 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B709" t="s" s="2">
         <v>234</v>
@@ -83958,7 +83970,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B710" t="s" s="2">
         <v>236</v>
@@ -84070,7 +84082,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>239</v>
@@ -84182,7 +84194,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>242</v>
@@ -84294,7 +84306,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>246</v>
@@ -84406,7 +84418,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>247</v>
@@ -84520,7 +84532,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>248</v>
@@ -84636,7 +84648,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>249</v>
@@ -84748,7 +84760,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>252</v>
@@ -84860,7 +84872,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>255</v>
@@ -84974,7 +84986,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>259</v>
@@ -85088,7 +85100,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>263</v>
@@ -85202,13 +85214,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C721" t="s" s="2">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="D721" t="s" s="2">
         <v>78</v>
@@ -85316,7 +85328,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>183</v>
@@ -85428,7 +85440,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>184</v>
@@ -85542,7 +85554,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>185</v>
@@ -85658,7 +85670,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>186</v>
@@ -85770,7 +85782,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B726" t="s" s="2">
         <v>189</v>
@@ -85884,14 +85896,14 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B727" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E727" s="2"/>
       <c r="F727" t="s" s="2">
@@ -85910,16 +85922,16 @@
         <v>78</v>
       </c>
       <c r="K727" t="s" s="2">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="L727" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M727" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="N727" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="O727" s="2"/>
       <c r="P727" t="s" s="2">
@@ -85984,10 +85996,10 @@
         <v>78</v>
       </c>
       <c r="AK727" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AL727" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AM727" t="s" s="2">
         <v>78</v>
@@ -85998,7 +86010,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>197</v>
@@ -86110,7 +86122,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B729" t="s" s="2">
         <v>201</v>
@@ -86222,7 +86234,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B730" t="s" s="2">
         <v>202</v>
@@ -86336,7 +86348,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B731" t="s" s="2">
         <v>203</v>
@@ -86452,7 +86464,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B732" t="s" s="2">
         <v>204</v>
@@ -86566,7 +86578,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B733" t="s" s="2">
         <v>210</v>
@@ -86680,7 +86692,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B734" t="s" s="2">
         <v>215</v>
@@ -86792,7 +86804,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B735" t="s" s="2">
         <v>219</v>
@@ -86904,7 +86916,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B736" t="s" s="2">
         <v>220</v>
@@ -87018,7 +87030,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B737" t="s" s="2">
         <v>221</v>
@@ -87134,7 +87146,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B738" t="s" s="2">
         <v>222</v>
@@ -87246,7 +87258,7 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B739" t="s" s="2">
         <v>227</v>
@@ -87360,7 +87372,7 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B740" t="s" s="2">
         <v>231</v>
@@ -87472,7 +87484,7 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B741" t="s" s="2">
         <v>234</v>
@@ -87584,7 +87596,7 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B742" t="s" s="2">
         <v>236</v>
@@ -87696,7 +87708,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B743" t="s" s="2">
         <v>239</v>
@@ -87808,7 +87820,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B744" t="s" s="2">
         <v>242</v>
@@ -87920,7 +87932,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B745" t="s" s="2">
         <v>246</v>
@@ -88032,7 +88044,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B746" t="s" s="2">
         <v>247</v>
@@ -88146,7 +88158,7 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B747" t="s" s="2">
         <v>248</v>
@@ -88262,7 +88274,7 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B748" t="s" s="2">
         <v>249</v>
@@ -88374,7 +88386,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B749" t="s" s="2">
         <v>252</v>
@@ -88486,7 +88498,7 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B750" t="s" s="2">
         <v>255</v>
@@ -88600,7 +88612,7 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B751" t="s" s="2">
         <v>259</v>
@@ -88714,7 +88726,7 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B752" t="s" s="2">
         <v>263</v>
@@ -88828,10 +88840,10 @@
     </row>
     <row r="753">
       <c r="A753" t="s" s="2">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B753" t="s" s="2">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" t="s" s="2">
@@ -88854,19 +88866,19 @@
         <v>89</v>
       </c>
       <c r="K753" t="s" s="2">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="L753" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="M753" t="s" s="2">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="N753" t="s" s="2">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="O753" t="s" s="2">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="P753" t="s" s="2">
         <v>78</v>
@@ -88915,7 +88927,7 @@
         <v>78</v>
       </c>
       <c r="AF753" t="s" s="2">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="AG753" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1232,7 +1232,7 @@
     <t>Bundle.entry:location.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Location {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-location-incident}
+    <t xml:space="preserve">Location {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-incident-location-incident}
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Bundle — EMS Submission</t>
+    <t>RS Bundle — EMS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Bundle — EMS Submission</t>
+    <t>Road Safety Bundle — EMS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Bundle — EMS Submission</t>
+    <t>RS Bundle — EMS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-ems.xlsx
+++ b/StructureDefinition-rs-bundle-ems.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
